--- a/QuanLyShopBanQuatDien/Resources/Reports/revenue_by_customer_report.xlsx
+++ b/QuanLyShopBanQuatDien/Resources/Reports/revenue_by_customer_report.xlsx
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$VND]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$VND]"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -152,8 +152,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -161,14 +159,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,19 +184,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,68 +499,68 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="3" max="3" width="14.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -568,25 +569,25 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
